--- a/src/test/resources/tests.xlsx
+++ b/src/test/resources/tests.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="empty" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="only_header" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="valid" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="valid_headerless" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,17 +23,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t xml:space="preserve">AnyHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aBigDecimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aBigInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aChar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aCharacter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aInt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aInteger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aLong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aLongWrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aDouble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aDoubleWrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aFloat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aFloatWrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aBooleanWrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aLocalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Not Get This</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY\ HH:MM"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -98,8 +162,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -123,17 +199,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
@@ -148,11 +224,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -162,7 +241,227 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:Q1 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="16" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>51.5151</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2147483647</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>-2147483648</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>9.22337203685478E+018</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-9.22337203685478E+018</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.01234567890123</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1.01234567890123</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>2.0123456</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>3.0123456</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>32636</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>51.5151</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>2147483647</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>-2147483648</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>9.22337203685478E+018</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>-9.22337203685478E+018</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>0.01234567890123</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>1.01234567890123</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>2.0123456</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>3.0123456</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>32636</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
